--- a/Racecard_20250216_1.xlsx
+++ b/Racecard_20250216_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="339">
   <si>
     <t>日期</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
   </si>
   <si>
     <t>上次名次</t>
@@ -813,6 +819,21 @@
   </si>
   <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>2024/12/22</t>
+  </si>
+  <si>
+    <t>2024/03/03</t>
+  </si>
+  <si>
+    <t>2024/02/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第五班 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第四班 </t>
   </si>
   <si>
     <t>賀銘年</t>
@@ -1399,13 +1420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CM15"/>
+  <dimension ref="A1:CO15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:93">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,25 +1700,31 @@
       <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:93">
       <c r="A2" s="2">
         <v>45704</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>1600</v>
@@ -1706,237 +1733,243 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L2">
         <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O2">
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2">
         <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="W2">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AB2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AD2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AE2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH2">
         <v>2024277</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK2">
         <v>6</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK2">
+      <c r="AL2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM2">
         <v>13</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>130</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>4</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>4</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <v>7</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>24.45</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>47</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AY2">
+        <v>24.85</v>
+      </c>
+      <c r="AZ2">
+        <v>23.07</v>
+      </c>
+      <c r="BA2">
+        <v>24.13</v>
+      </c>
+      <c r="BB2">
+        <v>24.05</v>
+      </c>
+      <c r="BE2">
+        <v>48.18</v>
+      </c>
+      <c r="BF2">
+        <v>0.207</v>
+      </c>
+      <c r="BG2">
+        <v>48.387</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BI2">
+        <v>2023701</v>
+      </c>
+      <c r="BJ2">
+        <v>10</v>
+      </c>
+      <c r="BK2" t="s">
         <v>267</v>
       </c>
-      <c r="AS2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW2">
-        <v>24.85</v>
-      </c>
-      <c r="AX2">
-        <v>23.07</v>
-      </c>
-      <c r="AY2">
-        <v>24.13</v>
-      </c>
-      <c r="AZ2">
-        <v>24.05</v>
-      </c>
-      <c r="BC2">
-        <v>48.18</v>
-      </c>
-      <c r="BD2">
-        <v>0.207</v>
-      </c>
-      <c r="BE2">
-        <v>48.387</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>281</v>
-      </c>
-      <c r="BG2">
-        <v>2023701</v>
-      </c>
-      <c r="BH2">
-        <v>10</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>260</v>
-      </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>7.8</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>117</v>
       </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>17</v>
       </c>
-      <c r="BM2">
+      <c r="BO2">
         <v>4</v>
       </c>
-      <c r="BN2">
+      <c r="BP2">
         <v>7</v>
       </c>
-      <c r="BO2">
+      <c r="BQ2">
         <v>24.82</v>
       </c>
-      <c r="BP2">
+      <c r="BR2">
         <v>47.81</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>294</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>299</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>304</v>
-      </c>
-      <c r="BV2">
+      <c r="BS2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>306</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BX2">
         <v>25.26</v>
       </c>
-      <c r="BW2">
+      <c r="BY2">
         <v>23.19</v>
       </c>
-      <c r="BX2">
+      <c r="BZ2">
         <v>23.97</v>
       </c>
-      <c r="BY2">
+      <c r="CA2">
         <v>23.67</v>
       </c>
-      <c r="CB2">
+      <c r="CD2">
         <v>47.64</v>
       </c>
-      <c r="CC2">
+      <c r="CE2">
         <v>0.402</v>
       </c>
-      <c r="CD2">
+      <c r="CF2">
         <v>48.042</v>
       </c>
-      <c r="CE2" t="s">
-        <v>307</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>109</v>
-      </c>
       <c r="CG2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="CH2" t="s">
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="CI2" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="CJ2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="CK2" t="s">
-        <v>327</v>
-      </c>
-      <c r="CL2">
+        <v>314</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>329</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>334</v>
+      </c>
+      <c r="CN2">
         <v>96.31</v>
       </c>
-      <c r="CM2">
+      <c r="CO2">
         <v>96.40000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:93">
       <c r="A3" s="2">
         <v>45704</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>1600</v>
@@ -1945,237 +1978,243 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L3">
         <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O3">
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R3">
         <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W3">
         <v>8</v>
       </c>
       <c r="Y3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AD3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AE3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH3">
         <v>2023468</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK3">
         <v>8</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK3">
+      <c r="AL3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM3">
         <v>26</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>127</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>7</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>1</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>2</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>24.52</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>47.1</v>
       </c>
-      <c r="AR3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW3">
+      <c r="AT3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AY3">
         <v>24.92</v>
       </c>
-      <c r="AX3">
+      <c r="AZ3">
         <v>22.82</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>23.74</v>
       </c>
-      <c r="AZ3">
+      <c r="BB3">
         <v>24.09</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>47.83</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>0.147</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>47.977</v>
       </c>
-      <c r="BF3" t="s">
-        <v>282</v>
-      </c>
-      <c r="BG3">
+      <c r="BH3" t="s">
+        <v>289</v>
+      </c>
+      <c r="BI3">
         <v>2023373</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>6</v>
       </c>
-      <c r="BI3" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ3">
+      <c r="BK3" t="s">
+        <v>298</v>
+      </c>
+      <c r="BL3">
         <v>36</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>131</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>3</v>
       </c>
-      <c r="BM3">
+      <c r="BO3">
         <v>10</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>-7</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
         <v>24.7</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>47.28</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>295</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>300</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>272</v>
-      </c>
-      <c r="BV3">
+      <c r="BS3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>307</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BX3">
         <v>24.78</v>
       </c>
-      <c r="BW3">
+      <c r="BY3">
         <v>22.78</v>
       </c>
-      <c r="BX3">
+      <c r="BZ3">
         <v>23.9</v>
       </c>
-      <c r="BY3">
+      <c r="CA3">
         <v>24.58</v>
       </c>
-      <c r="CB3">
+      <c r="CD3">
         <v>48.48</v>
       </c>
-      <c r="CC3">
+      <c r="CE3">
         <v>-0.102</v>
       </c>
-      <c r="CD3">
+      <c r="CF3">
         <v>48.378</v>
       </c>
-      <c r="CE3" t="s">
-        <v>308</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>110</v>
-      </c>
       <c r="CG3" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="CH3" t="s">
-        <v>313</v>
+        <v>112</v>
       </c>
       <c r="CI3" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="CJ3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="CK3" t="s">
-        <v>328</v>
-      </c>
-      <c r="CL3">
+        <v>315</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>330</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>335</v>
+      </c>
+      <c r="CN3">
         <v>95.72</v>
       </c>
-      <c r="CM3">
+      <c r="CO3">
         <v>95.83</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:93">
       <c r="A4" s="2">
         <v>45704</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>1600</v>
@@ -2184,237 +2223,243 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4">
         <v>133</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O4">
         <v>4</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R4">
         <v>38</v>
       </c>
       <c r="S4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W4">
         <v>5</v>
       </c>
       <c r="Y4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AB4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AC4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AD4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AE4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH4">
         <v>2023448</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK4">
         <v>1</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK4">
+      <c r="AL4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM4">
         <v>6.8</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>135</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>-2</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>10</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>-6</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>24.14</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>47.72</v>
       </c>
-      <c r="AR4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AW4">
+      <c r="AT4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY4">
         <v>24.98</v>
       </c>
-      <c r="AX4">
+      <c r="AZ4">
         <v>23.58</v>
       </c>
-      <c r="AY4">
+      <c r="BA4">
         <v>24.06</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>23.42</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>47.48</v>
       </c>
-      <c r="BD4">
+      <c r="BF4">
         <v>-0.156</v>
       </c>
-      <c r="BE4">
+      <c r="BG4">
         <v>47.324</v>
       </c>
-      <c r="BF4" t="s">
-        <v>283</v>
-      </c>
-      <c r="BG4">
+      <c r="BH4" t="s">
+        <v>290</v>
+      </c>
+      <c r="BI4">
         <v>2023258</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4">
         <v>4</v>
       </c>
-      <c r="BI4" t="s">
-        <v>292</v>
-      </c>
-      <c r="BJ4">
+      <c r="BK4" t="s">
+        <v>299</v>
+      </c>
+      <c r="BL4">
         <v>8.699999999999999</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>121</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>12</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>3</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>1</v>
       </c>
-      <c r="BO4">
+      <c r="BQ4">
         <v>24.39</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>47</v>
       </c>
-      <c r="BQ4" t="s">
-        <v>296</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>301</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>286</v>
-      </c>
-      <c r="BV4">
+      <c r="BS4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>308</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>293</v>
+      </c>
+      <c r="BX4">
         <v>25.03</v>
       </c>
-      <c r="BW4">
+      <c r="BY4">
         <v>22.89</v>
       </c>
-      <c r="BX4">
+      <c r="BZ4">
         <v>23.8</v>
       </c>
-      <c r="BY4">
+      <c r="CA4">
         <v>23.9</v>
       </c>
-      <c r="CB4">
+      <c r="CD4">
         <v>47.7</v>
       </c>
-      <c r="CC4">
+      <c r="CE4">
         <v>0.201</v>
       </c>
-      <c r="CD4">
+      <c r="CF4">
         <v>47.901</v>
       </c>
-      <c r="CE4" t="s">
-        <v>309</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>111</v>
-      </c>
       <c r="CG4" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="CH4" t="s">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="CI4" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="CJ4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="CK4" t="s">
-        <v>329</v>
-      </c>
-      <c r="CL4">
+        <v>316</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>331</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>336</v>
+      </c>
+      <c r="CN4">
         <v>95.88</v>
       </c>
-      <c r="CM4">
+      <c r="CO4">
         <v>95.84999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:93">
       <c r="A5" s="2">
         <v>45704</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>1600</v>
@@ -2423,90 +2468,90 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L5">
         <v>133</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R5">
         <v>38</v>
       </c>
       <c r="S5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W5">
         <v>6</v>
       </c>
       <c r="Y5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AD5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AE5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG5" t="s">
-        <v>256</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>112</v>
+        <v>258</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:93">
       <c r="A6" s="2">
         <v>45704</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>1600</v>
@@ -2515,87 +2560,87 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L6">
         <v>132</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O6">
         <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R6">
         <v>37</v>
       </c>
       <c r="S6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AA6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AB6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AC6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AD6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AE6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG6" t="s">
-        <v>255</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>113</v>
+        <v>257</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:93">
       <c r="A7" s="2">
         <v>45704</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>1600</v>
@@ -2604,168 +2649,174 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7">
         <v>132</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O7">
         <v>8</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R7">
         <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="U7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W7">
         <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AA7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AC7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AD7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AE7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH7">
         <v>2024277</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK7">
         <v>10</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK7">
+      <c r="AL7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM7">
         <v>25</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>133</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>-1</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>8</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>0</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>24.45</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>47</v>
       </c>
-      <c r="AR7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW7">
+      <c r="AT7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY7">
         <v>24.69</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>22.99</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>24.21</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>24.32</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>48.53</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>-0.015</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>48.515</v>
       </c>
-      <c r="BF7" t="s">
-        <v>284</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>114</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>284</v>
+      <c r="BH7" t="s">
+        <v>291</v>
       </c>
       <c r="CH7" t="s">
-        <v>315</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>284</v>
-      </c>
-      <c r="CL7">
+        <v>116</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>291</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>322</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>291</v>
+      </c>
+      <c r="CN7">
         <v>96.2</v>
       </c>
-      <c r="CM7">
+      <c r="CO7">
         <v>96.2</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:93">
       <c r="A8" s="2">
         <v>45704</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>1600</v>
@@ -2774,168 +2825,174 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8">
         <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O8">
         <v>13</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R8">
         <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="U8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W8">
         <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AA8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AC8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AD8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AE8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH8">
         <v>2023468</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK8">
         <v>9</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK8">
+      <c r="AL8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM8">
         <v>22</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>123</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>8</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>7</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>6</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>24.52</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>47.1</v>
       </c>
-      <c r="AR8" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>271</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW8">
+      <c r="AT8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>278</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY8">
         <v>25.36</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>23.18</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>23.34</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>23.73</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>47.07</v>
       </c>
-      <c r="BD8">
+      <c r="BF8">
         <v>0.246</v>
       </c>
-      <c r="BE8">
+      <c r="BG8">
         <v>47.316</v>
       </c>
-      <c r="BF8" t="s">
-        <v>285</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>115</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>285</v>
+      <c r="BH8" t="s">
+        <v>292</v>
       </c>
       <c r="CH8" t="s">
-        <v>316</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>285</v>
-      </c>
-      <c r="CL8">
+        <v>117</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>292</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>323</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>292</v>
+      </c>
+      <c r="CN8">
         <v>95.86</v>
       </c>
-      <c r="CM8">
+      <c r="CO8">
         <v>95.86</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:93">
       <c r="A9" s="2">
         <v>45704</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9">
         <v>1600</v>
@@ -2944,87 +3001,87 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9">
         <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O9">
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R9">
         <v>36</v>
       </c>
       <c r="S9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W9">
         <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AA9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AC9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AD9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG9" t="s">
-        <v>255</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>116</v>
+        <v>257</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:93">
       <c r="A10" s="2">
         <v>45704</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <v>1600</v>
@@ -3033,168 +3090,174 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10">
         <v>129</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O10">
         <v>14</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R10">
         <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="U10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="W10">
         <v>8</v>
       </c>
       <c r="Y10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AA10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AC10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AD10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AE10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH10">
         <v>2024277</v>
       </c>
-      <c r="AI10">
-        <v>1</v>
+      <c r="AI10" t="s">
+        <v>259</v>
       </c>
       <c r="AJ10" t="s">
         <v>262</v>
       </c>
       <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM10">
         <v>14</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>122</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>7</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>9</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>5</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>24.45</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>47</v>
       </c>
-      <c r="AR10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>270</v>
-      </c>
-      <c r="AW10">
+      <c r="AT10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AY10">
         <v>24.45</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
         <v>22.95</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>24.01</v>
       </c>
-      <c r="AZ10">
+      <c r="BB10">
         <v>24</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>48.01</v>
       </c>
-      <c r="BD10">
+      <c r="BF10">
         <v>0.21</v>
       </c>
-      <c r="BE10">
+      <c r="BG10">
         <v>48.22</v>
       </c>
-      <c r="BF10" t="s">
-        <v>286</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>286</v>
+      <c r="BH10" t="s">
+        <v>293</v>
       </c>
       <c r="CH10" t="s">
-        <v>317</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>286</v>
-      </c>
-      <c r="CL10">
+        <v>119</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>293</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>324</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>293</v>
+      </c>
+      <c r="CN10">
         <v>95.62</v>
       </c>
-      <c r="CM10">
+      <c r="CO10">
         <v>95.62</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:93">
       <c r="A11" s="2">
         <v>45704</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11">
         <v>1600</v>
@@ -3203,237 +3266,243 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11">
         <v>128</v>
       </c>
       <c r="M11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O11">
         <v>6</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R11">
         <v>33</v>
       </c>
       <c r="S11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="W11">
         <v>6</v>
       </c>
       <c r="Y11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AA11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AE11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH11">
         <v>2024277</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK11">
         <v>13</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK11">
+      <c r="AL11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM11">
         <v>6.8</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>131</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>-3</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>7</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>-1</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>24.45</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>47</v>
       </c>
-      <c r="AR11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY11">
+        <v>25.45</v>
+      </c>
+      <c r="AZ11">
+        <v>22.91</v>
+      </c>
+      <c r="BA11">
+        <v>23.77</v>
+      </c>
+      <c r="BB11">
+        <v>24.26</v>
+      </c>
+      <c r="BE11">
+        <v>48.03</v>
+      </c>
+      <c r="BF11">
+        <v>-0.066</v>
+      </c>
+      <c r="BG11">
+        <v>47.964</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI11">
+        <v>2024111</v>
+      </c>
+      <c r="BJ11">
+        <v>2</v>
+      </c>
+      <c r="BK11" t="s">
         <v>270</v>
       </c>
-      <c r="AV11" t="s">
-        <v>277</v>
-      </c>
-      <c r="AW11">
+      <c r="BL11">
+        <v>4.6</v>
+      </c>
+      <c r="BM11">
+        <v>131</v>
+      </c>
+      <c r="BN11">
+        <v>-3</v>
+      </c>
+      <c r="BO11">
+        <v>7</v>
+      </c>
+      <c r="BP11">
+        <v>-1</v>
+      </c>
+      <c r="BQ11">
+        <v>24.53</v>
+      </c>
+      <c r="BR11">
+        <v>47.23</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>309</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>312</v>
+      </c>
+      <c r="BX11">
         <v>25.45</v>
       </c>
-      <c r="AX11">
-        <v>22.91</v>
-      </c>
-      <c r="AY11">
-        <v>23.77</v>
-      </c>
-      <c r="AZ11">
-        <v>24.26</v>
-      </c>
-      <c r="BC11">
-        <v>48.03</v>
-      </c>
-      <c r="BD11">
+      <c r="BY11">
+        <v>23.18</v>
+      </c>
+      <c r="BZ11">
+        <v>23.19</v>
+      </c>
+      <c r="CA11">
+        <v>23.4</v>
+      </c>
+      <c r="CD11">
+        <v>46.59</v>
+      </c>
+      <c r="CE11">
         <v>-0.066</v>
       </c>
-      <c r="BE11">
-        <v>47.964</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>287</v>
-      </c>
-      <c r="BG11">
-        <v>2024111</v>
-      </c>
-      <c r="BH11">
-        <v>2</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>263</v>
-      </c>
-      <c r="BJ11">
-        <v>4.6</v>
-      </c>
-      <c r="BK11">
-        <v>131</v>
-      </c>
-      <c r="BL11">
-        <v>-3</v>
-      </c>
-      <c r="BM11">
-        <v>7</v>
-      </c>
-      <c r="BN11">
-        <v>-1</v>
-      </c>
-      <c r="BO11">
-        <v>24.53</v>
-      </c>
-      <c r="BP11">
-        <v>47.23</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>297</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>302</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>305</v>
-      </c>
-      <c r="BV11">
-        <v>25.45</v>
-      </c>
-      <c r="BW11">
-        <v>23.18</v>
-      </c>
-      <c r="BX11">
-        <v>23.19</v>
-      </c>
-      <c r="BY11">
-        <v>23.4</v>
-      </c>
-      <c r="CB11">
-        <v>46.59</v>
-      </c>
-      <c r="CC11">
-        <v>-0.066</v>
-      </c>
-      <c r="CD11">
+      <c r="CF11">
         <v>46.524</v>
       </c>
-      <c r="CE11" t="s">
-        <v>310</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>118</v>
-      </c>
       <c r="CG11" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="CH11" t="s">
-        <v>318</v>
+        <v>120</v>
       </c>
       <c r="CI11" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="CJ11" t="s">
         <v>325</v>
       </c>
       <c r="CK11" t="s">
-        <v>330</v>
-      </c>
-      <c r="CL11">
+        <v>317</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>332</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>337</v>
+      </c>
+      <c r="CN11">
         <v>96.31999999999999</v>
       </c>
-      <c r="CM11">
+      <c r="CO11">
         <v>95.72999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:93">
       <c r="A12" s="2">
         <v>45704</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <v>1600</v>
@@ -3442,168 +3511,174 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L12">
         <v>128</v>
       </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R12">
         <v>33</v>
       </c>
       <c r="S12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W12">
         <v>6</v>
       </c>
       <c r="Y12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AA12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AC12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AD12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AE12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH12">
         <v>2024277</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK12">
         <v>14</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AK12">
+      <c r="AL12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM12">
         <v>16</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>134</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>-6</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>2</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>8</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>24.45</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>47</v>
       </c>
-      <c r="AR12" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>278</v>
-      </c>
-      <c r="AW12">
+      <c r="AT12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY12">
         <v>25.05</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>22.75</v>
       </c>
-      <c r="AY12">
+      <c r="BA12">
         <v>24.01</v>
       </c>
-      <c r="AZ12">
+      <c r="BB12">
         <v>24.74</v>
       </c>
-      <c r="BC12">
+      <c r="BE12">
         <v>48.75</v>
       </c>
-      <c r="BD12">
+      <c r="BF12">
         <v>0.07800000000000001</v>
       </c>
-      <c r="BE12">
+      <c r="BG12">
         <v>48.828</v>
       </c>
-      <c r="BF12" t="s">
-        <v>288</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>119</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>288</v>
+      <c r="BH12" t="s">
+        <v>295</v>
       </c>
       <c r="CH12" t="s">
-        <v>319</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>288</v>
-      </c>
-      <c r="CL12">
+        <v>121</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>295</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>326</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>295</v>
+      </c>
+      <c r="CN12">
         <v>96.63</v>
       </c>
-      <c r="CM12">
+      <c r="CO12">
         <v>96.63</v>
       </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:93">
       <c r="A13" s="2">
         <v>45704</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>1600</v>
@@ -3612,87 +3687,87 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13">
         <v>124</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O13">
         <v>9</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R13">
         <v>29</v>
       </c>
       <c r="S13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W13">
         <v>5</v>
       </c>
       <c r="Y13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AD13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AE13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG13" t="s">
-        <v>255</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>120</v>
+        <v>257</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:93">
       <c r="A14" s="2">
         <v>45704</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <v>1600</v>
@@ -3701,168 +3776,174 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14">
         <v>117</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R14">
         <v>22</v>
       </c>
       <c r="S14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="W14">
         <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AA14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AB14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AC14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AD14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AE14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH14">
         <v>2024277</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK14">
         <v>5</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>265</v>
-      </c>
-      <c r="AK14">
+      <c r="AL14" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM14">
         <v>18</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>121</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>-4</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>1</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>4</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>24.45</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>47</v>
       </c>
-      <c r="AR14" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW14">
+      <c r="AT14" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AY14">
         <v>24.81</v>
       </c>
-      <c r="AX14">
+      <c r="AZ14">
         <v>22.79</v>
       </c>
-      <c r="AY14">
+      <c r="BA14">
         <v>24.09</v>
       </c>
-      <c r="AZ14">
+      <c r="BB14">
         <v>24.24</v>
       </c>
-      <c r="BC14">
+      <c r="BE14">
         <v>48.33</v>
       </c>
-      <c r="BD14">
+      <c r="BF14">
         <v>0.02400000000000001</v>
       </c>
-      <c r="BE14">
+      <c r="BG14">
         <v>48.354</v>
       </c>
-      <c r="BF14" t="s">
-        <v>289</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>121</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>289</v>
+      <c r="BH14" t="s">
+        <v>296</v>
       </c>
       <c r="CH14" t="s">
-        <v>320</v>
-      </c>
-      <c r="CK14" t="s">
-        <v>289</v>
-      </c>
-      <c r="CL14">
+        <v>123</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>296</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>296</v>
+      </c>
+      <c r="CN14">
         <v>95.95</v>
       </c>
-      <c r="CM14">
+      <c r="CO14">
         <v>95.95</v>
       </c>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:93">
       <c r="A15" s="2">
         <v>45704</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>1600</v>
@@ -3871,216 +3952,222 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L15">
         <v>115</v>
       </c>
       <c r="M15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R15">
         <v>19</v>
       </c>
       <c r="S15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="W15">
         <v>5</v>
       </c>
       <c r="Y15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AB15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AC15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AD15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AE15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AF15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH15">
         <v>2024277</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK15">
         <v>12</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>266</v>
-      </c>
-      <c r="AK15">
+      <c r="AL15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM15">
         <v>32</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>116</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>-1</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>12</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>-11</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>24.45</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>47</v>
       </c>
-      <c r="AR15" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>280</v>
-      </c>
-      <c r="AW15">
+      <c r="AT15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AY15">
         <v>24.49</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
         <v>22.51</v>
       </c>
-      <c r="AY15">
+      <c r="BA15">
         <v>24.29</v>
       </c>
-      <c r="AZ15">
+      <c r="BB15">
         <v>25.06</v>
       </c>
-      <c r="BC15">
+      <c r="BE15">
         <v>49.35</v>
       </c>
-      <c r="BD15">
+      <c r="BF15">
         <v>-0.246</v>
       </c>
-      <c r="BE15">
+      <c r="BG15">
         <v>49.104</v>
       </c>
-      <c r="BF15" t="s">
-        <v>290</v>
-      </c>
-      <c r="BG15">
+      <c r="BH15" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI15">
         <v>2024001</v>
       </c>
-      <c r="BH15">
+      <c r="BJ15">
         <v>12</v>
       </c>
-      <c r="BI15" t="s">
-        <v>293</v>
-      </c>
-      <c r="BJ15">
+      <c r="BK15" t="s">
+        <v>300</v>
+      </c>
+      <c r="BL15">
         <v>11</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>122</v>
       </c>
-      <c r="BL15">
+      <c r="BN15">
         <v>-7</v>
       </c>
-      <c r="BM15">
+      <c r="BO15">
         <v>3</v>
       </c>
-      <c r="BN15">
+      <c r="BP15">
         <v>-2</v>
       </c>
-      <c r="BO15">
+      <c r="BQ15">
         <v>24.65</v>
       </c>
-      <c r="BP15">
+      <c r="BR15">
         <v>47.27</v>
       </c>
-      <c r="BQ15" t="s">
-        <v>298</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>303</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>306</v>
-      </c>
-      <c r="BV15">
+      <c r="BS15" t="s">
+        <v>305</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>310</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>313</v>
+      </c>
+      <c r="BX15">
         <v>25.01</v>
       </c>
-      <c r="BW15">
+      <c r="BY15">
         <v>22.86</v>
       </c>
-      <c r="BX15">
+      <c r="BZ15">
         <v>23.86</v>
       </c>
-      <c r="BY15">
+      <c r="CA15">
         <v>25.13</v>
       </c>
-      <c r="CB15">
+      <c r="CD15">
         <v>48.99</v>
       </c>
-      <c r="CC15">
+      <c r="CE15">
         <v>-0.147</v>
       </c>
-      <c r="CD15">
+      <c r="CF15">
         <v>48.843</v>
       </c>
-      <c r="CE15" t="s">
-        <v>311</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>122</v>
-      </c>
       <c r="CG15" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="CH15" t="s">
-        <v>321</v>
+        <v>124</v>
       </c>
       <c r="CI15" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="CJ15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="CK15" t="s">
-        <v>331</v>
-      </c>
-      <c r="CL15">
+        <v>318</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>333</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>338</v>
+      </c>
+      <c r="CN15">
         <v>96.09999999999999</v>
       </c>
-      <c r="CM15">
+      <c r="CO15">
         <v>96.41</v>
       </c>
     </row>
